--- a/results/results_all_cat.xlsx
+++ b/results/results_all_cat.xlsx
@@ -406,16 +406,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.002785890844816924</v>
+        <v>0.002785890844816912</v>
       </c>
       <c r="B2">
-        <v>0.001425243683409984</v>
+        <v>0.00142524368340999</v>
       </c>
       <c r="C2">
-        <v>-6.459652200304375e-05</v>
+        <v>-6.459652200306804e-05</v>
       </c>
       <c r="D2">
-        <v>0.005636378211636891</v>
+        <v>0.005636378211636893</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -443,16 +443,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.000555682231371428</v>
+        <v>0.0005556822313714354</v>
       </c>
       <c r="B3">
-        <v>0.001047205808332292</v>
+        <v>0.00104720580833229</v>
       </c>
       <c r="C3">
-        <v>-0.001538729385293156</v>
+        <v>-0.001538729385293145</v>
       </c>
       <c r="D3">
-        <v>0.002650093848036012</v>
+        <v>0.002650093848036016</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -480,16 +480,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.001098124883279685</v>
+        <v>0.001098124883279681</v>
       </c>
       <c r="B4">
-        <v>0.0007155264499709257</v>
+        <v>0.0007155264499709265</v>
       </c>
       <c r="C4">
-        <v>-0.0003329280166621664</v>
+        <v>-0.000332928016662172</v>
       </c>
       <c r="D4">
-        <v>0.002529177783221537</v>
+        <v>0.002529177783221534</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.0007624787647369035</v>
+        <v>-0.0007624787647369034</v>
       </c>
       <c r="B5">
-        <v>0.0009104045276492704</v>
+        <v>0.0009104045276492736</v>
       </c>
       <c r="C5">
-        <v>-0.002583287820035444</v>
+        <v>-0.002583287820035451</v>
       </c>
       <c r="D5">
-        <v>0.001058330290561637</v>
+        <v>0.001058330290561644</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.002785890844816924</v>
+        <v>0.002785890844816912</v>
       </c>
       <c r="B6">
-        <v>0.001425243683409984</v>
+        <v>0.00142524368340999</v>
       </c>
       <c r="C6">
-        <v>-6.459652200304375e-05</v>
+        <v>-6.459652200306804e-05</v>
       </c>
       <c r="D6">
-        <v>0.005636378211636891</v>
+        <v>0.005636378211636893</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -591,16 +591,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.003341573076188352</v>
+        <v>0.003341573076188348</v>
       </c>
       <c r="B7">
-        <v>0.001416588925858523</v>
+        <v>0.001416588925858526</v>
       </c>
       <c r="C7">
-        <v>0.0005083952244713057</v>
+        <v>0.0005083952244712949</v>
       </c>
       <c r="D7">
-        <v>0.006174750927905398</v>
+        <v>0.006174750927905401</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.004439697959468037</v>
+        <v>0.004439697959468029</v>
       </c>
       <c r="B8">
-        <v>0.001661362485269721</v>
+        <v>0.001661362485269723</v>
       </c>
       <c r="C8">
-        <v>0.001116972988928594</v>
+        <v>0.001116972988928583</v>
       </c>
       <c r="D8">
-        <v>0.007762422930007479</v>
+        <v>0.007762422930007474</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.003677219194731133</v>
+        <v>0.003677219194731125</v>
       </c>
       <c r="B9">
-        <v>0.002097147370871742</v>
+        <v>0.002097147370871748</v>
       </c>
       <c r="C9">
-        <v>-0.0005170755470123517</v>
+        <v>-0.0005170755470123717</v>
       </c>
       <c r="D9">
-        <v>0.007871513936474617</v>
+        <v>0.007871513936474622</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1590,16 +1590,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.003032767108888312</v>
+        <v>-0.00303276710888831</v>
       </c>
       <c r="B34">
-        <v>0.002828981772059121</v>
+        <v>0.002828981772059122</v>
       </c>
       <c r="C34">
         <v>-0.008690730653006554</v>
       </c>
       <c r="D34">
-        <v>0.00262519643522993</v>
+        <v>0.002625196435229933</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.002757269874787371</v>
+        <v>0.002757269874787362</v>
       </c>
       <c r="B35">
-        <v>0.001970623036903787</v>
+        <v>0.001970623036903785</v>
       </c>
       <c r="C35">
-        <v>-0.001183976199020203</v>
+        <v>-0.001183976199020209</v>
       </c>
       <c r="D35">
-        <v>0.006698515948594944</v>
+        <v>0.006698515948594933</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.002282498010963291</v>
+        <v>0.002282498010963293</v>
       </c>
       <c r="B36">
-        <v>0.00361941918526799</v>
+        <v>0.003619419185267991</v>
       </c>
       <c r="C36">
         <v>-0.004956340359572689</v>
       </c>
       <c r="D36">
-        <v>0.009521336381499271</v>
+        <v>0.009521336381499275</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1701,16 +1701,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>3.35082450088602e-05</v>
+        <v>3.350824500885686e-05</v>
       </c>
       <c r="B37">
-        <v>0.002286574622044399</v>
+        <v>0.002286574622044403</v>
       </c>
       <c r="C37">
-        <v>-0.004539640999079939</v>
+        <v>-0.004539640999079949</v>
       </c>
       <c r="D37">
-        <v>0.004606657489097659</v>
+        <v>0.004606657489097663</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1738,16 +1738,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.003032767108888312</v>
+        <v>-0.00303276710888831</v>
       </c>
       <c r="B38">
-        <v>0.002828981772059121</v>
+        <v>0.002828981772059122</v>
       </c>
       <c r="C38">
         <v>-0.008690730653006554</v>
       </c>
       <c r="D38">
-        <v>0.00262519643522993</v>
+        <v>0.002625196435229933</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.0002754972341009409</v>
+        <v>-0.0002754972341009482</v>
       </c>
       <c r="B39">
         <v>0.004111235982851028</v>
       </c>
       <c r="C39">
-        <v>-0.008497969199802998</v>
+        <v>-0.008497969199803005</v>
       </c>
       <c r="D39">
-        <v>0.007946974731601116</v>
+        <v>0.007946974731601109</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.00200700077686235</v>
+        <v>0.002007000776862345</v>
       </c>
       <c r="B40">
-        <v>0.003717103017616587</v>
+        <v>0.003717103017616585</v>
       </c>
       <c r="C40">
-        <v>-0.005427205258370825</v>
+        <v>-0.005427205258370826</v>
       </c>
       <c r="D40">
-        <v>0.009441206812095523</v>
+        <v>0.009441206812095515</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1849,16 +1849,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.00204050902187121</v>
+        <v>0.002040509021871201</v>
       </c>
       <c r="B41">
-        <v>0.003781955596282323</v>
+        <v>0.003781955596282322</v>
       </c>
       <c r="C41">
-        <v>-0.005523402170693435</v>
+        <v>-0.005523402170693443</v>
       </c>
       <c r="D41">
-        <v>0.009604420214435855</v>
+        <v>0.009604420214435846</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.007605327364104725</v>
+        <v>-0.007605327364104724</v>
       </c>
       <c r="B42">
-        <v>0.006037095640576697</v>
+        <v>0.006037095640576696</v>
       </c>
       <c r="C42">
         <v>-0.01967951864525812</v>
       </c>
       <c r="D42">
-        <v>0.004468863917048669</v>
+        <v>0.004468863917048668</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>-0.006611714719886665</v>
       </c>
       <c r="D43">
-        <v>0.003480085941440883</v>
+        <v>0.003480085941440882</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.004469071957244026</v>
+        <v>-0.004469071957244025</v>
       </c>
       <c r="B44">
         <v>0.003529247414121642</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.0006922311308444846</v>
+        <v>-0.0006922311308444848</v>
       </c>
       <c r="B45">
-        <v>0.001240337713132548</v>
+        <v>0.001240337713132547</v>
       </c>
       <c r="C45">
-        <v>-0.00317290655710958</v>
+        <v>-0.003172906557109579</v>
       </c>
       <c r="D45">
-        <v>0.001788444295420611</v>
+        <v>0.00178844429542061</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.007605327364104725</v>
+        <v>-0.007605327364104724</v>
       </c>
       <c r="B46">
-        <v>0.006037095640576697</v>
+        <v>0.006037095640576696</v>
       </c>
       <c r="C46">
         <v>-0.01967951864525812</v>
       </c>
       <c r="D46">
-        <v>0.004468863917048669</v>
+        <v>0.004468863917048668</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2074,13 +2074,13 @@
         <v>-0.009171141753327616</v>
       </c>
       <c r="B47">
-        <v>0.004136197915873615</v>
+        <v>0.004136197915873613</v>
       </c>
       <c r="C47">
         <v>-0.01744353758507484</v>
       </c>
       <c r="D47">
-        <v>-0.0008987459215803861</v>
+        <v>-0.0008987459215803895</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         <v>-0.01364021371057164</v>
       </c>
       <c r="B48">
-        <v>0.007392818466228464</v>
+        <v>0.007392818466228462</v>
       </c>
       <c r="C48">
-        <v>-0.02842585064302857</v>
+        <v>-0.02842585064302856</v>
       </c>
       <c r="D48">
-        <v>0.001145423221885284</v>
+        <v>0.001145423221885282</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2148,13 +2148,13 @@
         <v>-0.01433244484141613</v>
       </c>
       <c r="B49">
-        <v>0.008023297836027165</v>
+        <v>0.008023297836027163</v>
       </c>
       <c r="C49">
-        <v>-0.03037904051347046</v>
+        <v>-0.03037904051347045</v>
       </c>
       <c r="D49">
-        <v>0.001714150830638202</v>
+        <v>0.0017141508306382</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.007191839332564734</v>
+        <v>0.007191839332564733</v>
       </c>
       <c r="B66">
         <v>0.001353222166847085</v>
       </c>
       <c r="C66">
-        <v>0.004485394998870565</v>
+        <v>0.004485394998870563</v>
       </c>
       <c r="D66">
         <v>0.009898283666258903</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.009989752686149505</v>
+        <v>0.009989752686149503</v>
       </c>
       <c r="B67">
         <v>0.003021377156349795</v>
@@ -2820,7 +2820,7 @@
         <v>0.003946998373449914</v>
       </c>
       <c r="D67">
-        <v>0.0160325069988491</v>
+        <v>0.01603250699884909</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2848,16 +2848,16 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.0005514191817386862</v>
+        <v>-0.0005514191817386866</v>
       </c>
       <c r="B68">
-        <v>0.001421883387269972</v>
+        <v>0.001421883387269973</v>
       </c>
       <c r="C68">
-        <v>-0.003395185956278631</v>
+        <v>-0.003395185956278633</v>
       </c>
       <c r="D68">
-        <v>0.002292347592801259</v>
+        <v>0.00229234759280126</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.001674768056302298</v>
+        <v>0.001674768056302296</v>
       </c>
       <c r="B69">
         <v>0.001508508735692809</v>
       </c>
       <c r="C69">
-        <v>-0.00134224941508332</v>
+        <v>-0.001342249415083322</v>
       </c>
       <c r="D69">
         <v>0.004691785527687915</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.007191839332564734</v>
+        <v>0.007191839332564733</v>
       </c>
       <c r="B70">
         <v>0.001353222166847085</v>
       </c>
       <c r="C70">
-        <v>0.004485394998870565</v>
+        <v>0.004485394998870563</v>
       </c>
       <c r="D70">
         <v>0.009898283666258903</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.01718159201871424</v>
+        <v>0.01718159201871423</v>
       </c>
       <c r="B71">
-        <v>0.003239604461259752</v>
+        <v>0.003239604461259751</v>
       </c>
       <c r="C71">
         <v>0.01070238309619473</v>
@@ -2999,13 +2999,13 @@
         <v>0.01663017283697555</v>
       </c>
       <c r="B72">
-        <v>0.002729312376747867</v>
+        <v>0.002729312376747866</v>
       </c>
       <c r="C72">
         <v>0.01117154808347982</v>
       </c>
       <c r="D72">
-        <v>0.02208879759047129</v>
+        <v>0.02208879759047128</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3036,10 +3036,10 @@
         <v>0.01830494089327785</v>
       </c>
       <c r="B73">
-        <v>0.003311713087997312</v>
+        <v>0.003311713087997311</v>
       </c>
       <c r="C73">
-        <v>0.01168151471728323</v>
+        <v>0.01168151471728322</v>
       </c>
       <c r="D73">
         <v>0.02492836706927247</v>
@@ -3366,16 +3366,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0001165642422530846</v>
+        <v>0.0001165642422530877</v>
       </c>
       <c r="B82">
-        <v>0.002052560458439966</v>
+        <v>0.002052560458439964</v>
       </c>
       <c r="C82">
-        <v>-0.003988556674626848</v>
+        <v>-0.00398855667462684</v>
       </c>
       <c r="D82">
-        <v>0.004221685159133017</v>
+        <v>0.004221685159133016</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.001253015268033416</v>
+        <v>0.001253015268033417</v>
       </c>
       <c r="B83">
-        <v>0.0009084924468972178</v>
+        <v>0.0009084924468972168</v>
       </c>
       <c r="C83">
-        <v>-0.0005639696257610197</v>
+        <v>-0.0005639696257610162</v>
       </c>
       <c r="D83">
         <v>0.003070000161827851</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.00217846258098058</v>
+        <v>-0.002178462580980584</v>
       </c>
       <c r="B84">
         <v>0.00104217716595683</v>
       </c>
       <c r="C84">
-        <v>-0.00426281691289424</v>
+        <v>-0.004262816912894245</v>
       </c>
       <c r="D84">
-        <v>-9.410824906691973e-05</v>
+        <v>-9.41082490669232e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.001602417188115089</v>
+        <v>-0.00160241718811509</v>
       </c>
       <c r="B85">
-        <v>0.0009796502650783558</v>
+        <v>0.0009796502650783552</v>
       </c>
       <c r="C85">
         <v>-0.0035617177182718</v>
       </c>
       <c r="D85">
-        <v>0.0003568833420416228</v>
+        <v>0.0003568833420416206</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3514,16 +3514,16 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.0001165642422530846</v>
+        <v>0.0001165642422530877</v>
       </c>
       <c r="B86">
-        <v>0.002052560458439966</v>
+        <v>0.002052560458439964</v>
       </c>
       <c r="C86">
-        <v>-0.003988556674626848</v>
+        <v>-0.00398855667462684</v>
       </c>
       <c r="D86">
-        <v>0.004221685159133017</v>
+        <v>0.004221685159133016</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3551,16 +3551,16 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0013695795102865</v>
+        <v>0.001369579510286505</v>
       </c>
       <c r="B87">
-        <v>0.002597196545201439</v>
+        <v>0.002597196545201436</v>
       </c>
       <c r="C87">
-        <v>-0.003824813580116378</v>
+        <v>-0.003824813580116368</v>
       </c>
       <c r="D87">
-        <v>0.006563972600689379</v>
+        <v>0.006563972600689378</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3588,13 +3588,13 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>-0.0008088830706940795</v>
+        <v>-0.0008088830706940788</v>
       </c>
       <c r="B88">
         <v>0.002417919537946668</v>
       </c>
       <c r="C88">
-        <v>-0.005644722146587416</v>
+        <v>-0.005644722146587415</v>
       </c>
       <c r="D88">
         <v>0.004026956005199257</v>
@@ -3628,13 +3628,13 @@
         <v>-0.002411300258809168</v>
       </c>
       <c r="B89">
-        <v>0.003176369954681576</v>
+        <v>0.003176369954681575</v>
       </c>
       <c r="C89">
-        <v>-0.008764040168172321</v>
+        <v>-0.008764040168172317</v>
       </c>
       <c r="D89">
-        <v>0.003941439650553985</v>
+        <v>0.003941439650553981</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.003397936400418792</v>
+        <v>0.003397936400418791</v>
       </c>
       <c r="B114">
-        <v>0.001675613227709409</v>
+        <v>0.00167561322770941</v>
       </c>
       <c r="C114">
-        <v>4.670994499997305e-05</v>
+        <v>4.670994499997132e-05</v>
       </c>
       <c r="D114">
         <v>0.00674916285583761</v>
@@ -4587,16 +4587,16 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.001196661266162834</v>
+        <v>0.001196661266162833</v>
       </c>
       <c r="B115">
-        <v>0.001490271224630801</v>
+        <v>0.001490271224630803</v>
       </c>
       <c r="C115">
-        <v>-0.001783881183098768</v>
+        <v>-0.001783881183098772</v>
       </c>
       <c r="D115">
-        <v>0.004177203715424436</v>
+        <v>0.004177203715424438</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4627,13 +4627,13 @@
         <v>-0.001497101685427843</v>
       </c>
       <c r="B116">
-        <v>0.0006777338475591527</v>
+        <v>0.0006777338475591524</v>
       </c>
       <c r="C116">
         <v>-0.002852569380546148</v>
       </c>
       <c r="D116">
-        <v>-0.0001416339903095372</v>
+        <v>-0.0001416339903095383</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4661,16 +4661,16 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.002957982259693207</v>
+        <v>-0.002957982259693208</v>
       </c>
       <c r="B117">
         <v>0.001234082802507869</v>
       </c>
       <c r="C117">
-        <v>-0.005426147864708945</v>
+        <v>-0.005426147864708948</v>
       </c>
       <c r="D117">
-        <v>-0.000489816654677469</v>
+        <v>-0.0004898166546774695</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4698,13 +4698,13 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.003397936400418792</v>
+        <v>0.003397936400418791</v>
       </c>
       <c r="B118">
-        <v>0.001675613227709409</v>
+        <v>0.00167561322770941</v>
       </c>
       <c r="C118">
-        <v>4.670994499997305e-05</v>
+        <v>4.670994499997132e-05</v>
       </c>
       <c r="D118">
         <v>0.00674916285583761</v>
@@ -4735,16 +4735,16 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.004594597666581626</v>
+        <v>0.004594597666581624</v>
       </c>
       <c r="B119">
-        <v>0.002525583491654547</v>
+        <v>0.00252558349165455</v>
       </c>
       <c r="C119">
-        <v>-0.0004565693167274693</v>
+        <v>-0.0004565693167274754</v>
       </c>
       <c r="D119">
-        <v>0.00964576464989072</v>
+        <v>0.009645764649890722</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4772,13 +4772,13 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.003097495981153783</v>
+        <v>0.00309749598115378</v>
       </c>
       <c r="B120">
-        <v>0.002365778580744768</v>
+        <v>0.00236577858074477</v>
       </c>
       <c r="C120">
-        <v>-0.001634061180335754</v>
+        <v>-0.00163406118033576</v>
       </c>
       <c r="D120">
         <v>0.00782905314264332</v>
@@ -4809,13 +4809,13 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.0001395137214605757</v>
+        <v>0.0001395137214605718</v>
       </c>
       <c r="B121">
-        <v>0.002542671037888394</v>
+        <v>0.002542671037888396</v>
       </c>
       <c r="C121">
-        <v>-0.004945828354316213</v>
+        <v>-0.00494582835431622</v>
       </c>
       <c r="D121">
         <v>0.005224855797237363</v>
@@ -5438,16 +5438,16 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>-8.992131309906545e-05</v>
+        <v>-8.99213130990594e-05</v>
       </c>
       <c r="B138">
-        <v>0.0002444763336182624</v>
+        <v>0.000244476333618261</v>
       </c>
       <c r="C138">
-        <v>-0.0005788739803355902</v>
+        <v>-0.0005788739803355815</v>
       </c>
       <c r="D138">
-        <v>0.0003990313541374593</v>
+        <v>0.0003990313541374627</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5475,16 +5475,16 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>3.382550958220324e-05</v>
+        <v>3.382550958220694e-05</v>
       </c>
       <c r="B139">
-        <v>0.0002610066719223367</v>
+        <v>0.0002610066719223399</v>
       </c>
       <c r="C139">
-        <v>-0.0004881878342624702</v>
+        <v>-0.0004881878342624728</v>
       </c>
       <c r="D139">
-        <v>0.0005558388534268767</v>
+        <v>0.0005558388534268867</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.0004705366956368295</v>
+        <v>-0.0004705366956368257</v>
       </c>
       <c r="B140">
-        <v>0.0002227937650318517</v>
+        <v>0.0002227937650318513</v>
       </c>
       <c r="C140">
-        <v>-0.0009161242257005328</v>
+        <v>-0.0009161242257005283</v>
       </c>
       <c r="D140">
-        <v>-2.494916557312603e-05</v>
+        <v>-2.4949165573123e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5549,16 +5549,16 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.0001229867391797341</v>
+        <v>0.0001229867391797401</v>
       </c>
       <c r="B141">
-        <v>0.0002812389853456421</v>
+        <v>0.0002812389853456412</v>
       </c>
       <c r="C141">
-        <v>-0.0004394912315115501</v>
+        <v>-0.0004394912315115424</v>
       </c>
       <c r="D141">
-        <v>0.0006854647098710183</v>
+        <v>0.0006854647098710226</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5586,16 +5586,16 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-8.992131309906545e-05</v>
+        <v>-8.99213130990594e-05</v>
       </c>
       <c r="B142">
-        <v>0.0002444763336182624</v>
+        <v>0.000244476333618261</v>
       </c>
       <c r="C142">
-        <v>-0.0005788739803355902</v>
+        <v>-0.0005788739803355815</v>
       </c>
       <c r="D142">
-        <v>0.0003990313541374593</v>
+        <v>0.0003990313541374627</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5623,16 +5623,16 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-5.609580351686222e-05</v>
+        <v>-5.609580351685246e-05</v>
       </c>
       <c r="B143">
-        <v>0.0003216853100456268</v>
+        <v>0.0003216853100456299</v>
       </c>
       <c r="C143">
-        <v>-0.0006994664236081157</v>
+        <v>-0.0006994664236081123</v>
       </c>
       <c r="D143">
-        <v>0.0005872748165743913</v>
+        <v>0.0005872748165744073</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5660,16 +5660,16 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.0005266324991536917</v>
+        <v>-0.0005266324991536781</v>
       </c>
       <c r="B144">
-        <v>0.0004179305174000014</v>
+        <v>0.0004179305174000048</v>
       </c>
       <c r="C144">
-        <v>-0.001362493533953694</v>
+        <v>-0.001362493533953688</v>
       </c>
       <c r="D144">
-        <v>0.0003092285356463111</v>
+        <v>0.0003092285356463316</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5697,16 +5697,16 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.0004036457599739576</v>
+        <v>-0.0004036457599739381</v>
       </c>
       <c r="B145">
-        <v>0.0005279753089097243</v>
+        <v>0.0005279753089097274</v>
       </c>
       <c r="C145">
-        <v>-0.001459596377793406</v>
+        <v>-0.001459596377793393</v>
       </c>
       <c r="D145">
-        <v>0.000652304857845491</v>
+        <v>0.0006523048578455168</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5734,16 +5734,16 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.005059348113214881</v>
+        <v>-0.005059348113214893</v>
       </c>
       <c r="B146">
-        <v>0.002186695955346311</v>
+        <v>0.002186695955346321</v>
       </c>
       <c r="C146">
-        <v>-0.009432740023907503</v>
+        <v>-0.009432740023907536</v>
       </c>
       <c r="D146">
-        <v>-0.0006859562025222582</v>
+        <v>-0.0006859562025222504</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5771,16 +5771,16 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.003709864553321876</v>
+        <v>-0.003709864553321889</v>
       </c>
       <c r="B147">
-        <v>0.003556235443510056</v>
+        <v>0.003556235443510038</v>
       </c>
       <c r="C147">
-        <v>-0.01082233544034199</v>
+        <v>-0.01082233544034196</v>
       </c>
       <c r="D147">
-        <v>0.003402606333698236</v>
+        <v>0.003402606333698187</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5808,16 +5808,16 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>-3.433859857186058e-05</v>
+        <v>-3.433859857187169e-05</v>
       </c>
       <c r="B148">
-        <v>0.004039375930099721</v>
+        <v>0.004039375930099707</v>
       </c>
       <c r="C148">
-        <v>-0.008113090458771302</v>
+        <v>-0.008113090458771285</v>
       </c>
       <c r="D148">
-        <v>0.008044413261627581</v>
+        <v>0.008044413261627543</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5845,16 +5845,16 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>-0.0002199850471655247</v>
+        <v>-0.0002199850471655244</v>
       </c>
       <c r="B149">
-        <v>0.003977500279211255</v>
+        <v>0.003977500279211232</v>
       </c>
       <c r="C149">
-        <v>-0.008174985605588034</v>
+        <v>-0.008174985605587987</v>
       </c>
       <c r="D149">
-        <v>0.007735015511256985</v>
+        <v>0.007735015511256938</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5882,16 +5882,16 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.005059348113214881</v>
+        <v>-0.005059348113214893</v>
       </c>
       <c r="B150">
-        <v>0.002186695955346311</v>
+        <v>0.002186695955346321</v>
       </c>
       <c r="C150">
-        <v>-0.009432740023907503</v>
+        <v>-0.009432740023907536</v>
       </c>
       <c r="D150">
-        <v>-0.0006859562025222582</v>
+        <v>-0.0006859562025222504</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5919,16 +5919,16 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.008769212666536757</v>
+        <v>-0.008769212666536783</v>
       </c>
       <c r="B151">
-        <v>0.004521045424325448</v>
+        <v>0.004521045424325456</v>
       </c>
       <c r="C151">
-        <v>-0.01781130351518765</v>
+        <v>-0.0178113035151877</v>
       </c>
       <c r="D151">
-        <v>0.0002728781821141387</v>
+        <v>0.00027287818211413</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5956,16 +5956,16 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.008803551265108617</v>
+        <v>-0.008803551265108654</v>
       </c>
       <c r="B152">
-        <v>0.007202455984110377</v>
+        <v>0.007202455984110359</v>
       </c>
       <c r="C152">
         <v>-0.02320846323332937</v>
       </c>
       <c r="D152">
-        <v>0.005601360703112138</v>
+        <v>0.005601360703112065</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5993,16 +5993,16 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.009023536312274141</v>
+        <v>-0.009023536312274177</v>
       </c>
       <c r="B153">
-        <v>0.009408975533979361</v>
+        <v>0.0094089755339793</v>
       </c>
       <c r="C153">
-        <v>-0.02784148738023286</v>
+        <v>-0.02784148738023278</v>
       </c>
       <c r="D153">
-        <v>0.00979441475568458</v>
+        <v>0.009794414755684423</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6030,16 +6030,16 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>-0.001606113301628891</v>
+        <v>-0.001606113301628895</v>
       </c>
       <c r="B154">
-        <v>0.001168998406132752</v>
+        <v>0.001168998406132745</v>
       </c>
       <c r="C154">
-        <v>-0.003944110113894395</v>
+        <v>-0.003944110113894385</v>
       </c>
       <c r="D154">
-        <v>0.0007318835106366129</v>
+        <v>0.000731883510636594</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6067,16 +6067,16 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>-0.002035642972132657</v>
+        <v>-0.002035642972132633</v>
       </c>
       <c r="B155">
-        <v>0.0007553597499377194</v>
+        <v>0.0007553597499377211</v>
       </c>
       <c r="C155">
-        <v>-0.003546362472008096</v>
+        <v>-0.003546362472008076</v>
       </c>
       <c r="D155">
-        <v>-0.000524923472257218</v>
+        <v>-0.0005249234722571911</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6107,13 +6107,13 @@
         <v>-0.004263754809080081</v>
       </c>
       <c r="B156">
-        <v>0.0009364063443829791</v>
+        <v>0.0009364063443829948</v>
       </c>
       <c r="C156">
-        <v>-0.006136567497846039</v>
+        <v>-0.00613656749784607</v>
       </c>
       <c r="D156">
-        <v>-0.002390942120314122</v>
+        <v>-0.002390942120314091</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6141,16 +6141,16 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.001038899421293776</v>
+        <v>0.001038899421293757</v>
       </c>
       <c r="B157">
-        <v>0.0006756321741169207</v>
+        <v>0.0006756321741169082</v>
       </c>
       <c r="C157">
-        <v>-0.0003123649269400649</v>
+        <v>-0.0003123649269400595</v>
       </c>
       <c r="D157">
-        <v>0.002390163769527618</v>
+        <v>0.002390163769527573</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6178,16 +6178,16 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>-0.001606113301628891</v>
+        <v>-0.001606113301628895</v>
       </c>
       <c r="B158">
-        <v>0.001168998406132752</v>
+        <v>0.001168998406132745</v>
       </c>
       <c r="C158">
-        <v>-0.003944110113894395</v>
+        <v>-0.003944110113894385</v>
       </c>
       <c r="D158">
-        <v>0.0007318835106366129</v>
+        <v>0.000731883510636594</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6215,16 +6215,16 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-0.003641756273761548</v>
+        <v>-0.003641756273761529</v>
       </c>
       <c r="B159">
-        <v>0.001720905254522314</v>
+        <v>0.001720905254522308</v>
       </c>
       <c r="C159">
-        <v>-0.007083566782806175</v>
+        <v>-0.007083566782806144</v>
       </c>
       <c r="D159">
-        <v>-0.0001999457647169204</v>
+        <v>-0.000199945764716913</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6252,16 +6252,16 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.007905511082841628</v>
+        <v>-0.007905511082841609</v>
       </c>
       <c r="B160">
-        <v>0.002129372444552985</v>
+        <v>0.002129372444552995</v>
       </c>
       <c r="C160">
         <v>-0.0121642559719476</v>
       </c>
       <c r="D160">
-        <v>-0.003646766193735658</v>
+        <v>-0.003646766193735619</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6289,16 +6289,16 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.006866611661547852</v>
+        <v>-0.006866611661547853</v>
       </c>
       <c r="B161">
-        <v>0.00255294014544797</v>
+        <v>0.002552940145447958</v>
       </c>
       <c r="C161">
-        <v>-0.01197249195244379</v>
+        <v>-0.01197249195244377</v>
       </c>
       <c r="D161">
-        <v>-0.001760731370651913</v>
+        <v>-0.001760731370651936</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
